--- a/Dyn/src/Config/数据库对照表.xlsx
+++ b/Dyn/src/Config/数据库对照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduSyncdisk\Learn\laboratory\自开发动力学\Satellite\Dyn\src\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DFC02-0C2B-4F12-BE7D-4228609DE447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437A0EBA-9E62-422A-A235-0A5B7AF91B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="231">
   <si>
     <t>所属类</t>
   </si>
@@ -705,6 +705,75 @@
   </si>
   <si>
     <t>控制力矩Z轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM090</t>
+  </si>
+  <si>
+    <t>GnssNums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS位置X轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS位置Y轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS位置Z轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM091</t>
+  </si>
+  <si>
+    <t>SIM092</t>
+  </si>
+  <si>
+    <t>SIM093</t>
+  </si>
+  <si>
+    <t>SIM094</t>
+  </si>
+  <si>
+    <t>SIM095</t>
+  </si>
+  <si>
+    <t>SIM096</t>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS速度X轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS速度Y轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNSS速度Z轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +781,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +803,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -743,7 +821,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -766,18 +844,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,11 +897,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,19 +1185,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
+    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="15.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1091,7 +1218,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1108,7 +1235,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1250,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1265,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1276,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1287,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1298,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1309,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1193,160 +1320,160 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1360,33 +1487,33 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1397,7 +1524,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1535,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1546,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +1557,7 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1441,7 +1568,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1450,106 +1577,106 @@
       <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F38" t="s">
@@ -1557,29 +1684,29 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1717,7 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
@@ -1601,7 +1728,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1739,7 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1750,7 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1634,7 +1761,7 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1643,148 +1770,148 @@
       <c r="C46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>18</v>
       </c>
@@ -1795,7 +1922,7 @@
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>18</v>
       </c>
@@ -1806,7 +1933,7 @@
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>18</v>
       </c>
@@ -1817,7 +1944,7 @@
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>18</v>
       </c>
@@ -1828,7 +1955,7 @@
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>18</v>
       </c>
@@ -1839,405 +1966,526 @@
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>125</v>
+      <c r="A76" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>128</v>
+      <c r="D76" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" s="1" t="s">
-        <v>129</v>
+      <c r="A77" s="8"/>
+      <c r="B77" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>133</v>
+      <c r="A78" s="8"/>
+      <c r="B78" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1" t="s">
-        <v>135</v>
+      <c r="A79" s="8"/>
+      <c r="B79" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>132</v>
+      <c r="D79" s="8"/>
+      <c r="E79" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>137</v>
+      <c r="A80" s="8"/>
+      <c r="B80" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="1" t="s">
-        <v>139</v>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
+      <c r="B81" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
-        <v>141</v>
+      <c r="A82" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
+      <c r="A83" s="4"/>
       <c r="B83" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
+      <c r="A84" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="B84" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
+      <c r="A85" s="4"/>
       <c r="B85" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
+      <c r="A86" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="A87" s="4"/>
       <c r="B87" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="5"/>
+      <c r="A88" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="B88" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>132</v>
+      <c r="D88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="5"/>
-      <c r="B89" s="3" t="s">
-        <v>210</v>
+      <c r="A89" s="4"/>
+      <c r="B89" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="D89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="5"/>
-      <c r="B90" s="3" t="s">
-        <v>211</v>
+      <c r="A90" s="4"/>
+      <c r="B90" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="D90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="4"/>
+      <c r="B91" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="4"/>
+      <c r="B92" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="4"/>
+      <c r="B93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="48">
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A29"/>
+    <mergeCell ref="A30:A45"/>
+    <mergeCell ref="A46:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E79:E81"/>
     <mergeCell ref="E55:E57"/>
     <mergeCell ref="E49:E51"/>
     <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="D95:D97"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E16:E18"/>
@@ -2246,38 +2494,10 @@
     <mergeCell ref="E66:E69"/>
     <mergeCell ref="E70:E72"/>
     <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E95:E97"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="E34:E37"/>
     <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A29"/>
-    <mergeCell ref="A30:A45"/>
-    <mergeCell ref="A46:A62"/>
-    <mergeCell ref="A63:A65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
